--- a/outputs/MYRTLE5.xlsx
+++ b/outputs/MYRTLE5.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Abi is deciding whether to attend the conference, so understanding what is being presented is a crucial step in making that decision. Given her motivation to accomplish tasks efficiently and her comprehensive information processing style, she would consider finding out what is being presented as an essential step toward achieving her overall goal of deciding whether to attend POPL 2019.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, her comprehensive information processing style would lead her to gather detailed information about the conference presentations to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -434,17 +434,17 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style
-Why: Scrolling down is a natural action that aligns with Abi's comprehensive information processing style. The page is well-structured, with clear headings and sections that guide Abi through the content. She can see that the information about the conference, including keynotes and other events, is available further down the page. This visual cue is sufficient for her to take the action of scrolling down to find out more details.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout is clear, and the information about the conference is prominently displayed, making it easy for Abi to know that she should scroll down to find more details. This action does not require high computer self-efficacy, as it is a basic and familiar task.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After scrolling down, Abi would see detailed information about POPL 2019, including the schedule overview, keynotes, and events. This provides her with comprehensive information about what is being presented at the conference. The clear layout and the presence of relevant details indicate to Abi that she is making progress toward her goal of deciding whether to attend the conference. The structured information aligns with her comprehensive information processing style and her motivation to efficiently accomplish her tasks.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling down provides some information about the conference, it does not give a comprehensive overview of all the presentations. The page primarily shows keynotes and some events, but Abi may need more detailed information about the specific papers and sessions being presented. Given Abi's comprehensive information processing style, she would likely feel that she has not yet gathered all the necessary information to make an informed decision. Additionally, her low computer self-efficacy might make her uncertain if she has found all the relevant details, leading to a lack of confidence in her progress.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page is designed in a way that encourages scrolling to find more information. The layout is clear, and the presence of summary headings such as "Schedule Overview" and "Keynotes" provides visual cues that scrolling will reveal more details about the conference. These cues align with Abi's comprehensive information processing style, helping her know that scrolling down is the appropriate action to find out what is being presented at the conference. Additionally, her motivation to gather all necessary information efficiently supports this action.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page layout is clear and straightforward, with relevant information about the conference prominently displayed. Abi can easily see that there is more content below the fold, which would prompt her to scroll down. This action aligns with her comprehensive information processing style, as she would naturally want to gather more information. Additionally, scrolling is a basic and familiar action that does not require high computer self-efficacy, making it easy for Abi to take this step.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Learning Style
-Why: While scrolling down provides an overview of the conference, the presented information is not comprehensive enough for Abi to fully understand what is being presented at the conference. She sees keynotes and some events, but this may not cover all the sessions and presentations she might be interested in. Given Abi's comprehensive information processing style, she might feel that more detailed information is needed, such as a full list of sessions, topics, and speakers. Additionally, she might not be confident that she has gathered all the information necessary to make an informed decision about attending the conference. Thus, she might not feel that she has made significant progress toward her goal.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down, Abi will see some information about keynotes and a few events, but this does not provide a comprehensive overview of all the presentations at the conference. Given Abi's comprehensive information processing style, she would likely feel that she has not yet gathered all the necessary information to make an informed decision. Additionally, her low computer self-efficacy might make her uncertain if she has found all the relevant details, leading to a lack of confidence in her progress. Therefore, she may not feel that she has made sufficient progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The link labeled "Program of POPL 2019" is clearly visible and indicates that it will lead to more detailed information about the conference program. This aligns with Abi's comprehensive information processing style, as she would naturally look for such a link to gather more detailed information. Additionally, her motivation to find out what is being presented at the conference makes this action logical and straightforward. The page provides sufficient context and visual cues for Abi to confidently click the link, knowing that it will help her progress toward her goal.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify it as a relevant link to click for more information about the conference presentations. This aligns with her comprehensive information processing style, as she would naturally look for detailed information about the program. Additionally, clicking a clearly labeled link is a straightforward action that does not require high computer self-efficacy, making it easy for Abi to take this step.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: While Abi will know that she has accessed the detailed program of the conference, the sheer volume and density of information presented on the page can be overwhelming. Given her comprehensive information processing style, Abi might struggle to quickly find the specific information she needs amidst the extensive list of sessions and topics. Additionally, her low computer self-efficacy might make it difficult for her to efficiently navigate and extract the relevant details from this extensive list, causing her to question whether she has made significant progress toward her goal and gathered all the necessary information.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While Abi will land on a page with a detailed list of presentations, the sheer volume of information presented in a long, continuous list can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to quickly locate the specific information she needs. Additionally, her low computer self-efficacy might make her feel uncertain about whether she has found all the relevant details. The lack of clear organization or filtering options could hinder her ability to efficiently gather the necessary information, making her feel that she has not made sufficient progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style
-Why: Scrolling down is a common action that aligns with Abi's information processing style. The page layout, with its extensive list of sessions and topics, suggests that further information can be found by scrolling. While the volume of information presented might be overwhelming, the action of scrolling itself is straightforward and intuitive. Abi will know that scrolling down is necessary to view more details about what is being presented at the conference.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page layout suggests that there is more information below the fold, which would prompt her to scroll down. This action does not require high computer self-efficacy, as it is a basic and familiar task. The page is good enough for Abi to take this action because it is clear that there is additional content to be viewed by scrolling.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: After scrolling down, Abi would be presented with a very long and densely packed list of sessions and topics. Although she would know she is on the right track, the overwhelming amount of information might make it difficult for her to feel that she is making clear progress toward her goal. Abi's comprehensive information processing style would require her to sift through all this information, and her low computer self-efficacy might make her feel uncertain about efficiently finding the specific details she needs. This could result in her feeling unsure about whether she has gathered all the necessary information to make an informed decision about attending the conference.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down, Abi will encounter a very long and detailed list of presentations. While this page contains a lot of information, the sheer volume and lack of clear organization or filtering options can be overwhelming. Given Abi's comprehensive information processing style, she might find it difficult to quickly locate the specific information she needs. Additionally, her low computer self-efficacy might make her feel uncertain about whether she has found all the relevant details. The overwhelming amount of information without clear guidance can hinder her ability to efficiently gather the necessary information, making her feel that she has not made sufficient progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Learning Style
-Why: The page is densely packed with information and does not provide clear visual cues or instructions on what to do next. Abi might struggle to identify which link leads to the distinguished paper, especially if it is not clearly labeled or if there are multiple similar-looking links. Given her low computer self-efficacy, Abi might feel uncertain about clicking on a link without being sure it will lead her to the distinguished paper. Additionally, her preference for process-oriented learning means she would benefit from more explicit guidance on the page, which is not provided here. Therefore, she might not know what to do and may hesitate to take this action.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a long list of papers, but it is not immediately clear which ones are distinguished papers or how to identify them. Given Abi's comprehensive information processing style, she would need clear indicators or labels to efficiently find the distinguished papers. Additionally, her low computer self-efficacy might make her hesitant to click on links without being certain of their relevance. The lack of clear guidance or organization on the page can make it difficult for Abi to confidently take this action.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After clicking on the distinguished paper, Abi will be presented with a detailed pop-up window that provides comprehensive information about the paper, including the title, abstract, authors, and their affiliations. This detailed view aligns with Abi's comprehensive information processing style and helps her confirm that she is making progress toward her goal of understanding what is being presented at the conference. The clear and concise presentation of relevant information ensures that she gets all the details she needs to make an informed decision about attending the conference.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as it provides all the necessary details in a clear and organized manner. Additionally, the pop-up format is straightforward and easy to understand, which supports her low computer self-efficacy by providing a clear indication that she has done the right thing and is making progress toward her goal. The information presented is sufficient for her to make an informed decision about attending the conference.</t>
         </is>
       </c>
     </row>
@@ -524,17 +524,17 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Learning Style
-Why: The page does not provide a clear and intuitive way for Abi to navigate back to the main page to check tutorials. Given her low computer self-efficacy and preference for process-oriented learning, Abi might struggle to find an obvious way to return to the main page. There is no explicit "back" button or navigation link visible in the popup, and she might not be confident about closing the popup window, fearing it might not take her back to where she wants to go. This lack of clear navigation guidance makes it difficult for Abi to take this action confidently.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The current page does not provide a clear or intuitive way to navigate back to the main page. Abi might not know how to return to the main page to check the tutorial information. Given her comprehensive information processing style, she would need clear navigation options to feel confident in her actions. Additionally, her low computer self-efficacy might make her hesitant to explore or click on unfamiliar elements without clear guidance, making it difficult for her to take this action confidently.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: If Abi returns to the main page, she will see a clear overview of the conference, including links to various program elements such as tutorials. The main page is well-organized with distinct sections and headings, making it easy for Abi to navigate and find the information she needs. The presence of links and a structured layout will help her confirm that she is making progress toward her goal of understanding what is being presented at the conference. This aligns with her comprehensive information processing style and motivation to gather detailed information.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After returning to the main page, Abi will see a general overview of the conference, including keynotes and some events. However, the page does not provide detailed information about the tutorials, which is what Abi is specifically looking for. Given her comprehensive information processing style, she would need more specific details to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her uncertain if she has found all the relevant details, leading to a lack of confidence in her progress. The main page does not clearly indicate where to find detailed information about the tutorials, making it difficult for Abi to feel that she has done the right thing and is making progress.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page is structured in a way that makes the TutorialFest links clearly visible and distinct. Given Abi's comprehensive information processing style, she will recognize the TutorialFest section and understand that clicking on one of the links will provide her with more detailed information about the tutorials. Her motivation to find out what is being presented at the conference will drive her to take this action, and the page provides sufficient visual cues and organization to guide her in the right direction.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "TutorialFest" links are clearly labeled and prominently displayed on the main page, making it easy for Abi to identify them as relevant links to click for more information about the tutorials. This aligns with her comprehensive information processing style, as she would naturally look for detailed information about the tutorials. Additionally, clicking a clearly labeled link is a straightforward action that does not require high computer self-efficacy, making it easy for Abi to take this step. The page is good enough for Abi to take this action because it provides clear and intuitive navigation options.</t>
         </is>
       </c>
     </row>
@@ -551,8 +551,8 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: After clicking on the TutorialFest link, Abi will land on a page with limited information about the tutorials. The page lacks specific details about the tutorials themselves, such as topics, schedules, or descriptions, which are crucial for Abi to understand what is being presented. Given her comprehensive information processing style, Abi may feel that this page does not provide enough information to make progress toward her goal. Additionally, her low computer self-efficacy might make her unsure about where to find the detailed information she needs, leading to frustration and uncertainty. Therefore, she may not feel that she is making significant progress toward her goal and getting all the information she needs.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the TutorialFest link, Abi lands on a page that provides some information about the tutorials, but it is not comprehensive. The page lacks detailed information about the specific tutorials being offered, their schedules, or their content. Given Abi's comprehensive information processing style, she would need more specific details to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her uncertain if she has found all the relevant details, leading to a lack of confidence in her progress. The page does not provide all the information she needs to make an informed decision about attending the conference.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE5.xlsx
+++ b/outputs/MYRTLE5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, her comprehensive information processing style means she would consider gathering detailed information about the conference presentations as an essential step in her decision-making process.</t>
+Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial information for making that decision. The page provides a schedule overview and details about keynotes and other events, which aligns with Abi's motivation to gather comprehensive information before making a decision. This step is directly relevant to her goal of determining the value of attending the conference.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is well-structured and provides clear headings and sections, making it easy for Abi to understand that she needs to scroll down to find more information about the conference. The presence of a schedule overview and keynotes section indicates that more detailed information is available further down the page. This aligns with Abi's comprehensive information processing style, as she would naturally scroll to gather all relevant details. Additionally, the clear layout and familiar web navigation elements support her computer self-efficacy, making her feel confident in taking this action.</t>
+Why: The page is well-structured and provides clear information about the conference, including a schedule overview and details about keynotes and other events. Scrolling down to find more information is a straightforward action that aligns with Abi's comprehensive information processing style. Additionally, the page layout and content are not overwhelming, which supports Abi's confidence in navigating the page.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information about keynotes and a schedule overview, it does not provide comprehensive details about all the presentations at the conference. Abi's comprehensive information processing style means she needs detailed information to feel confident in her decision. The page does not provide a complete list of presentations or detailed descriptions, which might leave Abi feeling uncertain about whether she has all the necessary information. Additionally, her low computer self-efficacy might make her hesitant to explore further if the information is not immediately clear and complete.</t>
+Why: While scrolling down provides some information about keynotes and a schedule overview, it does not provide comprehensive details about all the presentations at the conference. Abi, who prefers a comprehensive information processing style, may not feel she has gathered all the necessary information to make an informed decision. Additionally, the page does not explicitly indicate that further details about all presentations can be found by scrolling or clicking elsewhere, which may leave Abi uncertain about her progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is well-organized with clear headings and sections, making it intuitive for Abi to understand that she needs to scroll down to find more information about the conference. The presence of a schedule overview and keynotes section indicates that more detailed information is available further down the page. This aligns with Abi's comprehensive information processing style, as she would naturally scroll to gather all relevant details. Additionally, the clear layout and familiar web navigation elements support her computer self-efficacy, making her feel confident in taking this action.</t>
+Why: The page is well-organized and provides clear headings and sections that indicate more information is available by scrolling down. Abi, who prefers a comprehensive information processing style, will likely recognize that scrolling down is a logical next step to gather more details about the conference. The page layout is straightforward and not overwhelming, which supports Abi's confidence in navigating the page and taking the action of scrolling down.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will find some information about keynotes and a schedule overview, but this does not provide comprehensive details about all the presentations at the conference. Abi's comprehensive information processing style means she needs detailed information to feel confident in her decision. The page does not provide a complete list of presentations or detailed descriptions, which might leave Abi feeling uncertain about whether she has all the necessary information. Additionally, her low computer self-efficacy might make her hesitant to explore further if the information is not immediately clear and complete. Therefore, she may not feel she is making sufficient progress toward her goal.</t>
+Why: While scrolling down provides some information about keynotes and a schedule overview, it does not provide comprehensive details about all the presentations at the conference. Abi, who prefers a comprehensive information processing style, may not feel she has gathered all the necessary information to make an informed decision. Additionally, the page does not explicitly indicate that further details about all presentations can be found by scrolling or clicking elsewhere, which may leave Abi uncertain about her progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify and understand that clicking it will provide more detailed information about the conference program. This aligns with her comprehensive information processing style, as she would look for specific links to gather detailed information. Additionally, the clear labeling and familiar web navigation elements support her computer self-efficacy, making her feel confident in taking this action.</t>
+Why: The link labeled "Program of POPL 2019" is clearly visible and suggests that it will provide detailed information about the conference program. This aligns with Abi's comprehensive information processing style, as she is looking for detailed information about what is being presented at the conference. The clear labeling of the link also supports her computer self-efficacy, as it reduces uncertainty about what the link will lead to, making her more confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking the "Program of POPL 2019" link, Abi will land on a page that provides a detailed and comprehensive list of the conference presentations. This aligns with her comprehensive information processing style, as she will have access to all the necessary details to make an informed decision about attending the conference. The detailed schedule and list of presentations will also satisfy her motivation to gather all relevant information to accomplish her task effectively. Therefore, she will know that she did the right thing and is making progress toward her goal.</t>
+Why: After clicking the "Program of POPL 2019" link, Abi lands on a page that provides a detailed schedule of the conference, including session titles, times, and speakers. This comprehensive information aligns with Abi's information processing style, as she prefers to gather detailed information to make informed decisions. The detailed schedule will help her understand what is being presented at the conference, thus making progress toward her goal of deciding whether to attend. The page provides all the necessary information she needs, supporting her motivation to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is structured in a way that clearly lists the conference presentations in a detailed manner. Abi, with her comprehensive information processing style, will recognize that scrolling down will reveal more information about the presentations. The familiar layout of a list and the clear headings will support her computer self-efficacy, making her feel confident in taking this action. Therefore, she will know what to do at this step and the page is good enough for her to take this action.</t>
+Why: The page Abi lands on after clicking the link is a detailed schedule of the conference, which is long and requires scrolling to view all the information. Given Abi's comprehensive information processing style, she will understand that scrolling down is necessary to gather all the details about the conference presentations. The page layout is straightforward, and the information is organized in a clear, linear fashion, which supports her confidence in navigating the page and taking the action of scrolling down.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: After scrolling down, Abi will see a detailed and comprehensive list of the conference presentations. This aligns with her comprehensive information processing style, as she will have access to all the necessary details to make an informed decision about attending the conference. The detailed schedule and list of presentations will also satisfy her motivation to gather all relevant information to accomplish her task effectively. Therefore, she will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
+Why: By scrolling down, Abi will see a detailed schedule of the conference, including session titles, times, and speakers. This comprehensive information aligns with her information processing style, as she prefers to gather detailed information to make informed decisions. The detailed schedule will help her understand what is being presented at the conference, thus making progress toward her goal of deciding whether to attend. The page provides all the necessary information she needs, supporting her motivation to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is densely packed with information, and while it lists many papers, it does not clearly indicate which ones are distinguished papers or provide an obvious link to click on for more details. Abi, with her low computer self-efficacy, might feel overwhelmed by the sheer volume of information and unsure about where to click to find the distinguished papers. Additionally, her process-oriented learning style means she prefers clear instructions and step-by-step guidance, which this page does not provide. Therefore, she may not know what to do at this step or feel confident in taking the action.</t>
+Why: The page is densely packed with information, and it may not be immediately clear to Abi which links are clickable or what specific actions she should take to find out more about the distinguished papers. Given Abi's low confidence in unfamiliar computing tasks and her preference for process-oriented learning, she might struggle to identify the correct link to click without explicit guidance. The page does not provide clear instructions or visual cues to help her understand that clicking on a distinguished paper title will provide more information, which could lead to uncertainty and hesitation.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary of the content. This aligns with her comprehensive information processing style, as she will have access to all the necessary details to make an informed decision about attending the conference. The detailed information provided in the pop-up will also satisfy her motivation to gather all relevant information to accomplish her task effectively. Therefore, she will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
+Why: After clicking on the distinguished paper, Abi is presented with a detailed pop-up that includes the title, abstract, and author information. This detailed information aligns with her comprehensive information processing style, as it provides in-depth details about the paper. The pop-up clearly indicates that she has accessed the right information, helping her feel confident that she is making progress toward her goal of finding out what is being presented at the conference. The detailed content supports her motivation to gather all necessary information to make an informed decision about attending the conference.</t>
         </is>
       </c>
     </row>
@@ -525,25 +525,25 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page does not provide a clear or intuitive way to navigate back to the main page. Abi, with her low computer self-efficacy, might feel uncertain about how to return to the main page to check the tutorial information. Additionally, her process-oriented learning style means she prefers clear instructions and step-by-step guidance, which this page does not provide. The "Close" button on the pop-up might not be immediately obvious as the way to return to the previous page, and there is no clear navigation menu or breadcrumb trail to guide her back. Therefore, she may not know what to do at this step or feel confident in taking the action.</t>
+Why: The current page does not provide a clear or intuitive way to navigate back to the main page. Abi might struggle to find a way to return to the main page to check the tutorial information, especially given her low confidence in unfamiliar computing tasks. The page lacks explicit instructions or a visible "back" button, which would be necessary for Abi's process-oriented learning style. This could lead to confusion and hesitation, making it difficult for her to take this action confidently.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After returning to the main page, Abi will see the same initial information about the conference, including the schedule overview and keynotes. However, the page does not provide a clear or detailed section specifically for tutorials, which Abi is looking for. Given her comprehensive information processing style, she may feel that she has not yet gathered all the necessary information about the tutorials. Additionally, her low computer self-efficacy might make her hesitant to explore further or click on additional links without clear guidance. Therefore, she may not feel confident that she is making progress toward her goal or that she has all the information she needs.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: If Abi successfully navigates back to the main page, she will recognize that she is making progress toward her goal of finding out what is being presented at the conference. The main page provides a clear overview of the conference, including keynotes and tutorials, which are essential for her decision-making process. The page layout is straightforward and provides the necessary information, supporting her comprehensive information processing style and motivation to gather all relevant details.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page clearly lists "TutorialFest" as one of the events, and it is prominently displayed in the schedule overview. This makes it easy for Abi to identify and understand that clicking on one of the "TutorialFest" links will provide more detailed information about the tutorials. The clear labeling and familiar web navigation elements support her computer self-efficacy, making her feel confident in taking this action. Additionally, her comprehensive information processing style means she would naturally look for specific links to gather detailed information, and the page is structured in a way that supports this behavior.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide explicit instructions or clear visual cues indicating that the "TutorialFest" links are clickable and will lead to more detailed information. Given Abi's low confidence in unfamiliar computing tasks and her preference for process-oriented learning, she might struggle to identify the correct link to click without explicit guidance. The lack of clear instructions or visual indicators could lead to uncertainty and hesitation, making it difficult for her to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the "TutorialFest" link, Abi lands on a page that provides some information about the event, but it is not immediately clear or comprehensive. The page includes important dates and the evaluation committee, but it lacks detailed information about the specific tutorials being offered. Given Abi's comprehensive information processing style, she would need more detailed information to feel confident in her decision. Additionally, her low computer self-efficacy might make her hesitant to explore further if the information is not immediately clear and complete. Therefore, she may not feel that she is making sufficient progress toward her goal or that she has all the information she needs.</t>
+Why: After clicking on the TutorialFest link, Abi lands on a page that provides some information about the tutorials, but it is not comprehensive. The page includes important dates and the evaluation committee but lacks detailed information about the specific tutorials being offered. Given Abi's preference for comprehensive information processing, she may not feel she has gathered all the necessary details to make an informed decision. Additionally, the page layout and content may not provide clear guidance on where to find more detailed information, which could affect her confidence in navigating the page and making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE5.xlsx
+++ b/outputs/MYRTLE5.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial information for making that decision. The page provides a schedule overview and details about keynotes and other events, which aligns with Abi's motivation to gather comprehensive information before making a decision. This step is directly relevant to her goal of determining the value of attending the conference.</t>
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and information about keynotes and tutorials, which aligns with her comprehensive information processing style. This information would help her assess the value of attending the conference.</t>
         </is>
       </c>
     </row>
@@ -434,17 +434,17 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is well-structured and provides clear information about the conference, including a schedule overview and details about keynotes and other events. Scrolling down to find more information is a straightforward action that aligns with Abi's comprehensive information processing style. Additionally, the page layout and content are not overwhelming, which supports Abi's confidence in navigating the page.</t>
+Facets: 2. Information Processing Style
+Why: Scrolling down to find more information aligns with Abi's comprehensive information processing style. The page layout suggests that more details about the conference are available below, which would motivate her to scroll down to gather the necessary information.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information about keynotes and a schedule overview, it does not provide comprehensive details about all the presentations at the conference. Abi, who prefers a comprehensive information processing style, may not feel she has gathered all the necessary information to make an informed decision. Additionally, the page does not explicitly indicate that further details about all presentations can be found by scrolling or clicking elsewhere, which may leave Abi uncertain about her progress toward her goal.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which are relevant to her goal of finding out what is being presented at the conference. This confirms she is making progress toward her goal, as the information is clearly laid out and accessible, aligning with her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -452,17 +452,17 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is well-organized and provides clear headings and sections that indicate more information is available by scrolling down. Abi, who prefers a comprehensive information processing style, will likely recognize that scrolling down is a logical next step to gather more details about the conference. The page layout is straightforward and not overwhelming, which supports Abi's confidence in navigating the page and taking the action of scrolling down.</t>
+Facets: 2. Information Processing Style
+Why: The page layout suggests that more information is available below, which aligns with Abi's comprehensive information processing style. She is likely to scroll down to gather more details about the conference, as this is a common action to find additional content on a webpage.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information about keynotes and a schedule overview, it does not provide comprehensive details about all the presentations at the conference. Abi, who prefers a comprehensive information processing style, may not feel she has gathered all the necessary information to make an informed decision. Additionally, the page does not explicitly indicate that further details about all presentations can be found by scrolling or clicking elsewhere, which may leave Abi uncertain about her progress toward her goal.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: After scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which are directly related to her goal of finding out what is being presented at the conference. This confirms she is making progress toward her goal, as the information is clearly presented and relevant, aligning with her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -470,35 +470,35 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The link labeled "Program of POPL 2019" is clearly visible and suggests that it will provide detailed information about the conference program. This aligns with Abi's comprehensive information processing style, as she is looking for detailed information about what is being presented at the conference. The clear labeling of the link also supports her computer self-efficacy, as it reduces uncertainty about what the link will lead to, making her more confident in taking this action.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, making it likely she will know to click this link to achieve her goal.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking the "Program of POPL 2019" link, Abi lands on a page that provides a detailed schedule of the conference, including session titles, times, and speakers. This comprehensive information aligns with Abi's information processing style, as she prefers to gather detailed information to make informed decisions. The detailed schedule will help her understand what is being presented at the conference, thus making progress toward her goal of deciding whether to attend. The page provides all the necessary information she needs, supporting her motivation to make an informed decision.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although Abi lands on a page with detailed information about the program, the sheer volume of information presented at once may be overwhelming. This could hinder her ability to process the information effectively, given her comprehensive information processing style. Additionally, her low computer self-efficacy might make it difficult for her to navigate and extract the specific details she needs.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: YES
+          <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page Abi lands on after clicking the link is a detailed schedule of the conference, which is long and requires scrolling to view all the information. Given Abi's comprehensive information processing style, she will understand that scrolling down is necessary to gather all the details about the conference presentations. The page layout is straightforward, and the information is organized in a clear, linear fashion, which supports her confidence in navigating the page and taking the action of scrolling down.</t>
+Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to know where to focus, and her low computer self-efficacy could hinder her ability to navigate effectively through the extensive content.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: By scrolling down, Abi will see a detailed schedule of the conference, including session titles, times, and speakers. This comprehensive information aligns with her information processing style, as she prefers to gather detailed information to make informed decisions. The detailed schedule will help her understand what is being presented at the conference, thus making progress toward her goal of deciding whether to attend. The page provides all the necessary information she needs, supporting her motivation to make an informed decision.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Although scrolling down is a logical action, the overwhelming amount of information on the page may make it difficult for Abi to determine if she is making progress. Her comprehensive information processing style and low computer self-efficacy could hinder her ability to efficiently extract the specific details she needs from the extensive content.</t>
         </is>
       </c>
     </row>
@@ -507,16 +507,16 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is densely packed with information, and it may not be immediately clear to Abi which links are clickable or what specific actions she should take to find out more about the distinguished papers. Given Abi's low confidence in unfamiliar computing tasks and her preference for process-oriented learning, she might struggle to identify the correct link to click without explicit guidance. The page does not provide clear instructions or visual cues to help her understand that clicking on a distinguished paper title will provide more information, which could lead to uncertainty and hesitation.</t>
+Why: The page is dense with information, and without clear guidance or labels indicating where the "distinguished paper" link is, Abi might struggle to identify the correct action. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident clicking without explicit instructions or clear indicators.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the distinguished paper, Abi is presented with a detailed pop-up that includes the title, abstract, and author information. This detailed information aligns with her comprehensive information processing style, as it provides in-depth details about the paper. The pop-up clearly indicates that she has accessed the right information, helping her feel confident that she is making progress toward her goal of finding out what is being presented at the conference. The detailed content supports her motivation to gather all necessary information to make an informed decision about attending the conference.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
+Why: Although Abi lands on a page with information about distinguished papers, the error message and technical details might confuse her. Her low computer self-efficacy could make her uncertain about whether she is on the right track, and the disruption may prevent her from feeling confident that she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page does not provide a clear or intuitive way to navigate back to the main page. Abi might struggle to find a way to return to the main page to check the tutorial information, especially given her low confidence in unfamiliar computing tasks. The page lacks explicit instructions or a visible "back" button, which would be necessary for Abi's process-oriented learning style. This could lead to confusion and hesitation, making it difficult for her to take this action confidently.</t>
+Why: The page does not provide clear navigation options or instructions for returning to the main page. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to figure out how to go back without explicit guidance or a visible "back" option.</t>
         </is>
       </c>
     </row>
@@ -534,16 +534,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: If Abi successfully navigates back to the main page, she will recognize that she is making progress toward her goal of finding out what is being presented at the conference. The main page provides a clear overview of the conference, including keynotes and tutorials, which are essential for her decision-making process. The page layout is straightforward and provides the necessary information, supporting her comprehensive information processing style and motivation to gather all relevant details.</t>
+Why: Returning to the main page allows Abi to access the schedule overview and tutorial information, which are relevant to her goal. The clear layout and visible sections on the main page help her feel confident that she is making progress toward finding out what is being presented at the conference.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide explicit instructions or clear visual cues indicating that the "TutorialFest" links are clickable and will lead to more detailed information. Given Abi's low confidence in unfamiliar computing tasks and her preference for process-oriented learning, she might struggle to identify the correct link to click without explicit guidance. The lack of clear instructions or visual indicators could lead to uncertainty and hesitation, making it difficult for her to take this action confidently.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "TutorialFest" section is clearly labeled and visually distinct, making it easy for Abi to identify. Her motivation to find out what is being presented and her comprehensive information processing style will guide her to click on one of the tutorial links to gather more details.</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the TutorialFest link, Abi lands on a page that provides some information about the tutorials, but it is not comprehensive. The page includes important dates and the evaluation committee but lacks detailed information about the specific tutorials being offered. Given Abi's preference for comprehensive information processing, she may not feel she has gathered all the necessary details to make an informed decision. Additionally, the page layout and content may not provide clear guidance on where to find more detailed information, which could affect her confidence in navigating the page and making progress toward her goal.</t>
+Why: While Abi lands on the TutorialFest page, the information provided is minimal and lacks specific details about the tutorials themselves. This may not satisfy her comprehensive information processing style, and she might not feel confident that she has made progress toward her goal of understanding what is being presented at the conference.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE5.xlsx
+++ b/outputs/MYRTLE5.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and information about keynotes and tutorials, which aligns with her comprehensive information processing style. This information would help her assess the value of attending the conference.</t>
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style. This information would help her make an informed decision about attending.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down to find more information aligns with Abi's comprehensive information processing style. The page layout suggests that more details about the conference are available below, which would motivate her to scroll down to gather the necessary information.</t>
+Why: The page is structured with clear headings and sections, making it intuitive for Abi to scroll down to find more information about POPL 2019. Her comprehensive information processing style supports her ability to navigate the page effectively to gather the necessary details.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: By scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which are relevant to her goal of finding out what is being presented at the conference. This confirms she is making progress toward her goal, as the information is clearly laid out and accessible, aligning with her comprehensive information processing style.</t>
+Why: By scrolling down, Abi can see the schedule overview and keynotes, which provide relevant information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal of deciding whether to attend.</t>
         </is>
       </c>
     </row>
@@ -453,16 +453,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page layout suggests that more information is available below, which aligns with Abi's comprehensive information processing style. She is likely to scroll down to gather more details about the conference, as this is a common action to find additional content on a webpage.</t>
+Why: The page layout is clear, with visible sections and headings that suggest scrolling will reveal more information. This aligns with Abi's comprehensive information processing style, making it likely she will know to scroll down to find additional details about the conference.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: After scrolling down, Abi will see the schedule overview, keynotes, and tutorials, which are directly related to her goal of finding out what is being presented at the conference. This confirms she is making progress toward her goal, as the information is clearly presented and relevant, aligning with her comprehensive information processing style.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details needed to decide about attending. The page offers an overview, but Abi might require more specific information about the presentations, which isn't fully detailed here. Her need for comprehensive information and low confidence in unfamiliar tasks may leave her uncertain about her progress.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, making it likely she will know to click this link to achieve her goal.</t>
+Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, making it likely she will know to click this link to progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -480,79 +480,79 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although Abi lands on a page with detailed information about the program, the sheer volume of information presented at once may be overwhelming. This could hinder her ability to process the information effectively, given her comprehensive information processing style. Additionally, her low computer self-efficacy might make it difficult for her to navigate and extract the specific details she needs.</t>
+Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult for her to quickly determine if she has all the necessary information. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is long and detailed, which suggests that scrolling will reveal more information. Abi's comprehensive information processing style will guide her to scroll down to explore the full content of the program, helping her gather the necessary details about the conference presentations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to know where to focus, and her low computer self-efficacy could hinder her ability to navigate effectively through the extensive content.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+Why: Although scrolling reveals more information, the sheer volume and density of the content may overwhelm Abi. Her comprehensive information processing style might make it difficult to quickly assess if she has all the necessary details. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is effectively making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is dense with information, and without clear instructions or labels indicating where the "distinguished paper" link is, Abi might struggle to know what to click. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident in taking this action without explicit guidance.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page clearly lists the distinguished papers, which directly aligns with Abi's goal of finding out what is being presented. The structured format and labels help her confirm she is making progress toward her goal, providing the specific information she needs about the conference presentations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide a clear or intuitive way to navigate back to the main page. Abi's low computer self-efficacy and preference for guided learning mean she might struggle to find the correct way to return to the main page to check the tutorial without explicit instructions or a visible navigation option.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: Returning to the main page allows Abi to access the tutorial information, which is clearly visible. This aligns with her goal of exploring the program further. The structured layout and visible sections help her confirm she is making progress toward her goal by providing the additional information she needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The tutorial links are clearly labeled and visible on the page, making it intuitive for Abi to click on one to explore further. This aligns with her motivation to find out more about the conference offerings and her comprehensive information processing style, guiding her to take this action confidently.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling down is a logical action, the overwhelming amount of information on the page may make it difficult for Abi to determine if she is making progress. Her comprehensive information processing style and low computer self-efficacy could hinder her ability to efficiently extract the specific details she needs from the extensive content.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear guidance or labels indicating where the "distinguished paper" link is, Abi might struggle to identify the correct action. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident clicking without explicit instructions or clear indicators.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: Although Abi lands on a page with information about distinguished papers, the error message and technical details might confuse her. Her low computer self-efficacy could make her uncertain about whether she is on the right track, and the disruption may prevent her from feeling confident that she is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide clear navigation options or instructions for returning to the main page. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to figure out how to go back without explicit guidance or a visible "back" option.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: Returning to the main page allows Abi to access the schedule overview and tutorial information, which are relevant to her goal. The clear layout and visible sections on the main page help her feel confident that she is making progress toward finding out what is being presented at the conference.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "TutorialFest" section is clearly labeled and visually distinct, making it easy for Abi to identify. Her motivation to find out what is being presented and her comprehensive information processing style will guide her to click on one of the tutorial links to gather more details.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi lands on the TutorialFest page, the information provided is minimal and lacks specific details about the tutorials themselves. This may not satisfy her comprehensive information processing style, and she might not feel confident that she has made progress toward her goal of understanding what is being presented at the conference.</t>
+Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, as the specific content of the tutorials is not detailed. Her comprehensive information processing style and low computer self-efficacy might leave her uncertain about whether she has all the necessary information.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE5.xlsx
+++ b/outputs/MYRTLE5.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style. This information would help her make an informed decision about attending.</t>
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style. This information helps her assess the value of attending.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page is structured with clear headings and sections, making it intuitive for Abi to scroll down to find more information about POPL 2019. Her comprehensive information processing style supports her ability to navigate the page effectively to gather the necessary details.</t>
+Why: The page is structured with clear sections, including a schedule overview and keynotes, which aligns with Abi's comprehensive information processing style. Scrolling down to gather more information is a natural step for her to take in order to understand what is being presented at the conference.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: By scrolling down, Abi can see the schedule overview and keynotes, which provide relevant information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal of deciding whether to attend.</t>
+Why: By scrolling down, Abi can see the schedule overview, keynotes, and other relevant sections. This provides her with a clear understanding of what is being presented at the conference, confirming she is making progress toward her goal. The information is organized and accessible, aligning with her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page layout is clear, with visible sections and headings that suggest scrolling will reveal more information. This aligns with Abi's comprehensive information processing style, making it likely she will know to scroll down to find additional details about the conference.</t>
+Why: The page is well-organized with visible sections like the schedule overview and keynotes. This layout encourages scrolling to gather more information, which aligns with Abi's comprehensive information processing style. She will know that scrolling is the right action to take to find out more about the conference presentations.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details needed to decide about attending. The page offers an overview, but Abi might require more specific information about the presentations, which isn't fully detailed here. Her need for comprehensive information and low confidence in unfamiliar tasks may leave her uncertain about her progress.</t>
+Why: While scrolling provides some information, Abi may not feel she has all the details needed to fully understand what is being presented. The page offers an overview, but she might require more specific information about the presentations, which isn't fully detailed here. Her low computer self-efficacy might also make her uncertain if she has gathered enough information.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, making it likely she will know to click this link to progress toward her goal.</t>
+Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference presentations. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, making it likely she will know to click this link.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult for her to quickly determine if she has all the necessary information. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is making progress toward her goal.</t>
+Why: Although Abi clicked the correct link, the page she lands on is overwhelming with a large amount of detailed information. This could make it difficult for her to process and find specific presentations of interest. Her low computer self-efficacy might also lead to uncertainty about whether she has effectively gathered the necessary information.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page is long and detailed, which suggests that scrolling will reveal more information. Abi's comprehensive information processing style will guide her to scroll down to explore the full content of the program, helping her gather the necessary details about the conference presentations.</t>
+Why: The page contains a long list of presentations, and scrolling is a natural action to view more content. Abi's comprehensive information processing style will guide her to scroll down to gather more details about the conference program.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling reveals more information, the sheer volume and density of the content may overwhelm Abi. Her comprehensive information processing style might make it difficult to quickly assess if she has all the necessary details. Additionally, her low computer self-efficacy could lead to uncertainty about whether she is effectively making progress toward her goal.</t>
+Why: Although scrolling down is the correct action to view more content, the overwhelming amount of detailed information may make it difficult for Abi to determine if she has found all the relevant presentations. Her low computer self-efficacy might lead to uncertainty about whether she has effectively gathered the necessary information, making it hard for her to feel confident in her progress.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is dense with information, and without clear instructions or labels indicating where the "distinguished paper" link is, Abi might struggle to know what to click. Her low computer self-efficacy and preference for process-oriented learning mean she may not feel confident in taking this action without explicit guidance.</t>
+Why: The page is densely packed with information, and it may not be immediately clear to Abi where the "distinguished paper" link is located. Her low computer self-efficacy and preference for process-oriented learning mean she might struggle to identify the correct link without clear guidance or instructions.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The page clearly lists the distinguished papers, which directly aligns with Abi's goal of finding out what is being presented. The structured format and labels help her confirm she is making progress toward her goal, providing the specific information she needs about the conference presentations.</t>
+Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers with their titles and times. This aligns with her motivation to find out what is being presented and her comprehensive information processing style, allowing her to see she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide a clear or intuitive way to navigate back to the main page. Abi's low computer self-efficacy and preference for guided learning mean she might struggle to find the correct way to return to the main page to check the tutorial without explicit instructions or a visible navigation option.</t>
+Why: The page does not provide clear navigation or instructions on how to return to the main page to check the tutorial. Abi's low computer self-efficacy and preference for process-oriented learning mean she might struggle to figure out how to navigate back without explicit guidance.</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: Returning to the main page allows Abi to access the tutorial information, which is clearly visible. This aligns with her goal of exploring the program further. The structured layout and visible sections help her confirm she is making progress toward her goal by providing the additional information she needs.</t>
+Why: Returning to the main page allows Abi to access the tutorial information, which is clearly visible. This aligns with her motivation to explore the program and her comprehensive information processing style, helping her feel confident she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The tutorial links are clearly labeled and visible on the page, making it intuitive for Abi to click on one to explore further. This aligns with her motivation to find out more about the conference offerings and her comprehensive information processing style, guiding her to take this action confidently.</t>
+Why: The tutorial links are clearly labeled and visible on the page. Abi's motivation to explore the program and her comprehensive information processing style will guide her to click on a tutorial link to gather more information about the sessions.</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, as the specific content of the tutorials is not detailed. Her comprehensive information processing style and low computer self-efficacy might leave her uncertain about whether she has all the necessary information.</t>
+Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi may not feel she has all the necessary information about the specific tutorials being offered, which could lead to uncertainty about her progress toward her goal. Her comprehensive information processing style and low computer self-efficacy might make her unsure if she has done the right thing.</t>
         </is>
       </c>
     </row>
